--- a/Execute/Data/X_file/Brick/Brick프레임 정보.xlsx
+++ b/Execute/Data/X_file/Brick/Brick프레임 정보.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Dodge_L</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,26 @@
   </si>
   <si>
     <t>Attack_Hammer_Throw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -449,7 +469,7 @@
     <col min="1" max="1" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -473,7 +493,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -485,7 +505,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -497,7 +517,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -509,7 +529,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -521,7 +541,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -533,7 +553,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -545,7 +565,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -557,7 +577,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -568,7 +588,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -578,8 +598,11 @@
       <c r="D11">
         <v>525</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -589,8 +612,11 @@
       <c r="D12">
         <v>556</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -600,8 +626,11 @@
       <c r="D13">
         <v>640</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -612,7 +641,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -622,8 +651,11 @@
       <c r="D15">
         <v>883</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -654,6 +686,17 @@
       </c>
       <c r="D18">
         <v>1002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>638</v>
+      </c>
+      <c r="D19">
+        <v>697</v>
       </c>
     </row>
   </sheetData>

--- a/Execute/Data/X_file/Brick/Brick프레임 정보.xlsx
+++ b/Execute/Data/X_file/Brick/Brick프레임 정보.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Dodge_L</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,26 +87,6 @@
   </si>
   <si>
     <t>Attack_Hammer_Throw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -469,7 +449,7 @@
     <col min="1" max="1" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +461,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -493,7 +473,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -505,7 +485,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -517,7 +497,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -529,7 +509,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -541,7 +521,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -553,7 +533,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -565,7 +545,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -577,7 +557,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -588,7 +568,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -598,11 +578,8 @@
       <c r="D11">
         <v>525</v>
       </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -612,11 +589,8 @@
       <c r="D12">
         <v>556</v>
       </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -626,11 +600,8 @@
       <c r="D13">
         <v>640</v>
       </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -641,7 +612,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -651,11 +622,8 @@
       <c r="D15">
         <v>883</v>
       </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -686,17 +654,6 @@
       </c>
       <c r="D18">
         <v>1002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>638</v>
-      </c>
-      <c r="D19">
-        <v>697</v>
       </c>
     </row>
   </sheetData>
